--- a/pmeasurement/byma_activos.xlsx
+++ b/pmeasurement/byma_activos.xlsx
@@ -27,417 +27,418 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AIG" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AKO-B" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL29D" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL30D" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL35D" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL41D" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMAT" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMD" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMGN" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMX" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMZN" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ANF" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC1D" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARCO" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARM" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASML" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASR" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AUY" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AVGO" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AVY" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AXP" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AZN" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BA" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BABA" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAK" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAS" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAYN" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BB" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBAR" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBAS3.SA" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBD" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBV" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCS" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BHP" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BIDU" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BIIB" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BIOX" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BITF" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BK" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BKNG" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BKR" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMA" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMY" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BP" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPA7D" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPB7D" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPC7D" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPD7D" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPJ5D" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPY6D" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRFS" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRK-B" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRKB" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSBR" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSN" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BYCHD" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BYMA" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAAP" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAC5D" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAH" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAR" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAT" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CCL" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDE" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CEG" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CEPU" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CL" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CLS" sheetId="88" state="visible" r:id="rId88"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COIN" sheetId="89" state="visible" r:id="rId89"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COST" sheetId="90" state="visible" r:id="rId90"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRESY" sheetId="91" state="visible" r:id="rId91"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRM" sheetId="92" state="visible" r:id="rId92"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CS" sheetId="93" state="visible" r:id="rId93"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSCO" sheetId="94" state="visible" r:id="rId94"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSNA3.SA" sheetId="95" state="visible" r:id="rId95"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CUAP" sheetId="96" state="visible" r:id="rId96"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CVS" sheetId="97" state="visible" r:id="rId97"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CVX" sheetId="98" state="visible" r:id="rId98"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CX" sheetId="99" state="visible" r:id="rId99"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DAL" sheetId="100" state="visible" r:id="rId100"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DD" sheetId="101" state="visible" r:id="rId101"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DE" sheetId="102" state="visible" r:id="rId102"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DECK" sheetId="103" state="visible" r:id="rId103"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEO" sheetId="104" state="visible" r:id="rId104"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DHR" sheetId="105" state="visible" r:id="rId105"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DICP" sheetId="106" state="visible" r:id="rId106"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIS" sheetId="107" state="visible" r:id="rId107"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNC7D" sheetId="108" state="visible" r:id="rId108"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCU" sheetId="109" state="visible" r:id="rId109"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOW" sheetId="110" state="visible" r:id="rId110"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTEA" sheetId="111" state="visible" r:id="rId111"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E" sheetId="112" state="visible" r:id="rId112"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EA" sheetId="113" state="visible" r:id="rId113"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EBAY" sheetId="114" state="visible" r:id="rId114"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EBR" sheetId="115" state="visible" r:id="rId115"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDN" sheetId="116" state="visible" r:id="rId116"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EEM" sheetId="117" state="visible" r:id="rId117"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EFX" sheetId="118" state="visible" r:id="rId118"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELP" sheetId="119" state="visible" r:id="rId119"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EOAN" sheetId="120" state="visible" r:id="rId120"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EQNR" sheetId="121" state="visible" r:id="rId121"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERIC" sheetId="122" state="visible" r:id="rId122"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERJ" sheetId="123" state="visible" r:id="rId123"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETHA" sheetId="124" state="visible" r:id="rId124"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETSY" sheetId="125" state="visible" r:id="rId125"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EWJ" sheetId="126" state="visible" r:id="rId126"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EWZ" sheetId="127" state="visible" r:id="rId127"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F" sheetId="128" state="visible" r:id="rId128"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FCX" sheetId="129" state="visible" r:id="rId129"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FDX" sheetId="130" state="visible" r:id="rId130"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FMCC" sheetId="131" state="visible" r:id="rId131"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FMX" sheetId="132" state="visible" r:id="rId132"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FNMA" sheetId="133" state="visible" r:id="rId133"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FSLR" sheetId="134" state="visible" r:id="rId134"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FXI" sheetId="135" state="visible" r:id="rId135"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD29D" sheetId="136" state="visible" r:id="rId136"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD30D" sheetId="137" state="visible" r:id="rId137"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD35D" sheetId="138" state="visible" r:id="rId138"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD38D" sheetId="139" state="visible" r:id="rId139"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD41D" sheetId="140" state="visible" r:id="rId140"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GE" sheetId="141" state="visible" r:id="rId141"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GFI" sheetId="142" state="visible" r:id="rId142"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GGAL" sheetId="143" state="visible" r:id="rId143"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GGB" sheetId="144" state="visible" r:id="rId144"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GILD" sheetId="145" state="visible" r:id="rId145"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GLD" sheetId="146" state="visible" r:id="rId146"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GLOB" sheetId="147" state="visible" r:id="rId147"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GLW" sheetId="148" state="visible" r:id="rId148"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GM" sheetId="149" state="visible" r:id="rId149"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GNCXD" sheetId="150" state="visible" r:id="rId150"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOOGL" sheetId="151" state="visible" r:id="rId151"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPRK" sheetId="152" state="visible" r:id="rId152"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GRMN" sheetId="153" state="visible" r:id="rId153"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GS" sheetId="154" state="visible" r:id="rId154"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GSK" sheetId="155" state="visible" r:id="rId155"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GT" sheetId="156" state="visible" r:id="rId156"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HAL" sheetId="157" state="visible" r:id="rId157"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HAPV3.SA" sheetId="158" state="visible" r:id="rId158"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HD" sheetId="159" state="visible" r:id="rId159"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HDB" sheetId="160" state="visible" r:id="rId160"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HHPD" sheetId="161" state="visible" r:id="rId161"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HL" sheetId="162" state="visible" r:id="rId162"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HMC" sheetId="163" state="visible" r:id="rId163"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HMY" sheetId="164" state="visible" r:id="rId164"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOG" sheetId="165" state="visible" r:id="rId165"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HON" sheetId="166" state="visible" r:id="rId166"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HPQ" sheetId="167" state="visible" r:id="rId167"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HSBC" sheetId="168" state="visible" r:id="rId168"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HSY" sheetId="169" state="visible" r:id="rId169"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HUT" sheetId="170" state="visible" r:id="rId170"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HWM" sheetId="171" state="visible" r:id="rId171"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IBIT" sheetId="172" state="visible" r:id="rId172"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IBM" sheetId="173" state="visible" r:id="rId173"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IBN" sheetId="174" state="visible" r:id="rId174"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IEUR" sheetId="175" state="visible" r:id="rId175"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IFF" sheetId="176" state="visible" r:id="rId176"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IJH" sheetId="177" state="visible" r:id="rId177"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INFY" sheetId="178" state="visible" r:id="rId178"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ING" sheetId="179" state="visible" r:id="rId179"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INTC" sheetId="180" state="visible" r:id="rId180"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IP" sheetId="181" state="visible" r:id="rId181"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRCFD" sheetId="182" state="visible" r:id="rId182"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRSA" sheetId="183" state="visible" r:id="rId183"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ISRG" sheetId="184" state="visible" r:id="rId184"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ITUB" sheetId="185" state="visible" r:id="rId185"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IWM" sheetId="186" state="visible" r:id="rId186"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JBSS3.SA" sheetId="187" state="visible" r:id="rId187"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JCI" sheetId="188" state="visible" r:id="rId188"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JD" sheetId="189" state="visible" r:id="rId189"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JMIA" sheetId="190" state="visible" r:id="rId190"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JNJ" sheetId="191" state="visible" r:id="rId191"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JOYY" sheetId="192" state="visible" r:id="rId192"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JPM" sheetId="193" state="visible" r:id="rId193"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KB" sheetId="194" state="visible" r:id="rId194"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KEP" sheetId="195" state="visible" r:id="rId195"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGC" sheetId="196" state="visible" r:id="rId196"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KMB" sheetId="197" state="visible" r:id="rId197"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="198" state="visible" r:id="rId198"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KOD" sheetId="199" state="visible" r:id="rId199"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAC" sheetId="200" state="visible" r:id="rId200"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAR" sheetId="201" state="visible" r:id="rId201"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLY" sheetId="202" state="visible" r:id="rId202"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LMT" sheetId="203" state="visible" r:id="rId203"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LND" sheetId="204" state="visible" r:id="rId204"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOMA" sheetId="205" state="visible" r:id="rId205"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LRCX" sheetId="206" state="visible" r:id="rId206"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LREN3.SA" sheetId="207" state="visible" r:id="rId207"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LVS" sheetId="208" state="visible" r:id="rId208"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LYG" sheetId="209" state="visible" r:id="rId209"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MA" sheetId="210" state="visible" r:id="rId210"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MBG" sheetId="211" state="visible" r:id="rId211"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCD" sheetId="212" state="visible" r:id="rId212"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MDLZ" sheetId="213" state="visible" r:id="rId213"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MDT" sheetId="214" state="visible" r:id="rId214"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MELI" sheetId="215" state="visible" r:id="rId215"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="META" sheetId="216" state="visible" r:id="rId216"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGC9D" sheetId="217" state="visible" r:id="rId217"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGCMD" sheetId="218" state="visible" r:id="rId218"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGCOD" sheetId="219" state="visible" r:id="rId219"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGLU3.SA" sheetId="220" state="visible" r:id="rId220"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MMC" sheetId="221" state="visible" r:id="rId221"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MMM" sheetId="222" state="visible" r:id="rId222"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MO" sheetId="223" state="visible" r:id="rId223"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOS" sheetId="224" state="visible" r:id="rId224"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRCAD" sheetId="225" state="visible" r:id="rId225"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRK" sheetId="226" state="visible" r:id="rId226"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRNA" sheetId="227" state="visible" r:id="rId227"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRVL" sheetId="228" state="visible" r:id="rId228"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSFT" sheetId="229" state="visible" r:id="rId229"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSI" sheetId="230" state="visible" r:id="rId230"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSTR" sheetId="231" state="visible" r:id="rId231"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MTCGD" sheetId="232" state="visible" r:id="rId232"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MU" sheetId="233" state="visible" r:id="rId233"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MUFG" sheetId="234" state="visible" r:id="rId234"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MUX" sheetId="235" state="visible" r:id="rId235"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEC1.HM" sheetId="236" state="visible" r:id="rId236"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEM" sheetId="237" state="visible" r:id="rId237"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NFLX" sheetId="238" state="visible" r:id="rId238"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NG" sheetId="239" state="visible" r:id="rId239"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NGG" sheetId="240" state="visible" r:id="rId240"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NIO" sheetId="241" state="visible" r:id="rId241"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKE" sheetId="242" state="visible" r:id="rId242"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NMR" sheetId="243" state="visible" r:id="rId243"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NOKA" sheetId="244" state="visible" r:id="rId244"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NOW" sheetId="245" state="visible" r:id="rId245"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NPCBD" sheetId="246" state="visible" r:id="rId246"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NSAN" sheetId="247" state="visible" r:id="rId247"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NTCO" sheetId="248" state="visible" r:id="rId248"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NTES" sheetId="249" state="visible" r:id="rId249"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NUE" sheetId="250" state="visible" r:id="rId250"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NVDA" sheetId="251" state="visible" r:id="rId251"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NVS" sheetId="252" state="visible" r:id="rId252"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NXE" sheetId="253" state="visible" r:id="rId253"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORCL" sheetId="254" state="visible" r:id="rId254"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORLY" sheetId="255" state="visible" r:id="rId255"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OXY" sheetId="256" state="visible" r:id="rId256"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAAS" sheetId="257" state="visible" r:id="rId257"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAC" sheetId="258" state="visible" r:id="rId258"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAGS" sheetId="259" state="visible" r:id="rId259"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAMP" sheetId="260" state="visible" r:id="rId260"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PANW" sheetId="261" state="visible" r:id="rId261"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PARP" sheetId="262" state="visible" r:id="rId262"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PATH" sheetId="263" state="visible" r:id="rId263"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBI" sheetId="264" state="visible" r:id="rId264"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBR" sheetId="265" state="visible" r:id="rId265"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PCAR" sheetId="266" state="visible" r:id="rId266"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDD" sheetId="267" state="visible" r:id="rId267"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEP" sheetId="268" state="visible" r:id="rId268"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PFE" sheetId="269" state="visible" r:id="rId269"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PG" sheetId="270" state="visible" r:id="rId270"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PHG" sheetId="271" state="visible" r:id="rId271"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PINS" sheetId="272" state="visible" r:id="rId272"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PKS" sheetId="273" state="visible" r:id="rId273"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLTR" sheetId="274" state="visible" r:id="rId274"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PM" sheetId="275" state="visible" r:id="rId275"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PNDCD" sheetId="276" state="visible" r:id="rId276"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PNXCD" sheetId="277" state="visible" r:id="rId277"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRIO3.SA" sheetId="278" state="visible" r:id="rId278"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSO" sheetId="279" state="visible" r:id="rId279"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSX" sheetId="280" state="visible" r:id="rId280"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PYPL" sheetId="281" state="visible" r:id="rId281"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QCOM" sheetId="282" state="visible" r:id="rId282"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QQQ" sheetId="283" state="visible" r:id="rId283"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RACE" sheetId="284" state="visible" r:id="rId284"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RBLX" sheetId="285" state="visible" r:id="rId285"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCCJD" sheetId="286" state="visible" r:id="rId286"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCTB4.BA" sheetId="287" state="visible" r:id="rId287"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RENT3.SA" sheetId="288" state="visible" r:id="rId288"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RGTI" sheetId="289" state="visible" r:id="rId289"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIO" sheetId="290" state="visible" r:id="rId290"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIOT" sheetId="291" state="visible" r:id="rId291"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ROKU" sheetId="292" state="visible" r:id="rId292"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ROST" sheetId="293" state="visible" r:id="rId293"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RTX" sheetId="294" state="visible" r:id="rId294"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUCDD" sheetId="295" state="visible" r:id="rId295"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S10N5" sheetId="296" state="visible" r:id="rId296"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S12S5" sheetId="297" state="visible" r:id="rId297"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S15G5" sheetId="298" state="visible" r:id="rId298"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S16Y5" sheetId="299" state="visible" r:id="rId299"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S18J5" sheetId="300" state="visible" r:id="rId300"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S28N5" sheetId="301" state="visible" r:id="rId301"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S29G5" sheetId="302" state="visible" r:id="rId302"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S29Y6" sheetId="303" state="visible" r:id="rId303"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S30J5" sheetId="304" state="visible" r:id="rId304"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S30S5" sheetId="305" state="visible" r:id="rId305"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S30Y5" sheetId="306" state="visible" r:id="rId306"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S31L5" sheetId="307" state="visible" r:id="rId307"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S31O5" sheetId="308" state="visible" r:id="rId308"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SAN" sheetId="309" state="visible" r:id="rId309"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SAP" sheetId="310" state="visible" r:id="rId310"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SATL" sheetId="311" state="visible" r:id="rId311"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SBS" sheetId="312" state="visible" r:id="rId312"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SBUX" sheetId="313" state="visible" r:id="rId313"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCCO" sheetId="314" state="visible" r:id="rId314"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCHW" sheetId="315" state="visible" r:id="rId315"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDA" sheetId="316" state="visible" r:id="rId316"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SE" sheetId="317" state="visible" r:id="rId317"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHEL" sheetId="318" state="visible" r:id="rId318"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHOP" sheetId="319" state="visible" r:id="rId319"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SID" sheetId="320" state="visible" r:id="rId320"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SLB" sheetId="321" state="visible" r:id="rId321"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SLV" sheetId="322" state="visible" r:id="rId322"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMSN" sheetId="323" state="visible" r:id="rId323"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SNA" sheetId="324" state="visible" r:id="rId324"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SNAP" sheetId="325" state="visible" r:id="rId325"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SNOW" sheetId="326" state="visible" r:id="rId326"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SONY" sheetId="327" state="visible" r:id="rId327"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPCE" sheetId="328" state="visible" r:id="rId328"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPGI" sheetId="329" state="visible" r:id="rId329"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPOT" sheetId="330" state="visible" r:id="rId330"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY" sheetId="331" state="visible" r:id="rId331"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STLA" sheetId="332" state="visible" r:id="rId332"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STNE" sheetId="333" state="visible" r:id="rId333"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUPV" sheetId="334" state="visible" r:id="rId334"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SWKS" sheetId="335" state="visible" r:id="rId335"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SYY" sheetId="336" state="visible" r:id="rId336"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T" sheetId="337" state="visible" r:id="rId337"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T13F6" sheetId="338" state="visible" r:id="rId338"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T15D5" sheetId="339" state="visible" r:id="rId339"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T15E7" sheetId="340" state="visible" r:id="rId340"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T17O5" sheetId="341" state="visible" r:id="rId341"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T30E6" sheetId="342" state="visible" r:id="rId342"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T30J6" sheetId="343" state="visible" r:id="rId343"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCOM" sheetId="344" state="visible" r:id="rId344"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEAM" sheetId="345" state="visible" r:id="rId345"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TECO2" sheetId="346" state="visible" r:id="rId346"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEFO" sheetId="347" state="visible" r:id="rId347"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEN" sheetId="348" state="visible" r:id="rId348"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TGSU2" sheetId="349" state="visible" r:id="rId349"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TGT" sheetId="350" state="visible" r:id="rId350"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TIIAY" sheetId="351" state="visible" r:id="rId351"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TIMB" sheetId="352" state="visible" r:id="rId352"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TJX" sheetId="353" state="visible" r:id="rId353"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLC5D" sheetId="354" state="visible" r:id="rId354"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLCMD" sheetId="355" state="visible" r:id="rId355"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLCPD" sheetId="356" state="visible" r:id="rId356"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TM" sheetId="357" state="visible" r:id="rId357"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TMO" sheetId="358" state="visible" r:id="rId358"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TMUS" sheetId="359" state="visible" r:id="rId359"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TRIP" sheetId="360" state="visible" r:id="rId360"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TRVV" sheetId="361" state="visible" r:id="rId361"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSC3D" sheetId="362" state="visible" r:id="rId362"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSLA" sheetId="363" state="visible" r:id="rId363"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSM" sheetId="364" state="visible" r:id="rId364"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTCAD" sheetId="365" state="visible" r:id="rId365"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTD26" sheetId="366" state="visible" r:id="rId366"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTE" sheetId="367" state="visible" r:id="rId367"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTJ26" sheetId="368" state="visible" r:id="rId368"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTM" sheetId="369" state="visible" r:id="rId369"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTM26" sheetId="370" state="visible" r:id="rId370"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTS26" sheetId="371" state="visible" r:id="rId371"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TV" sheetId="372" state="visible" r:id="rId372"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWLO" sheetId="373" state="visible" r:id="rId373"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX" sheetId="374" state="visible" r:id="rId374"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX26" sheetId="375" state="visible" r:id="rId375"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX28" sheetId="376" state="visible" r:id="rId376"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX31" sheetId="377" state="visible" r:id="rId377"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXN" sheetId="378" state="visible" r:id="rId378"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TY30P" sheetId="379" state="visible" r:id="rId379"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZX26" sheetId="380" state="visible" r:id="rId380"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZX27" sheetId="381" state="visible" r:id="rId381"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZX28" sheetId="382" state="visible" r:id="rId382"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXD6" sheetId="383" state="visible" r:id="rId383"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXD7" sheetId="384" state="visible" r:id="rId384"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXM6" sheetId="385" state="visible" r:id="rId385"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXM7" sheetId="386" state="visible" r:id="rId386"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXO6" sheetId="387" state="visible" r:id="rId387"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UAL" sheetId="388" state="visible" r:id="rId388"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UBER" sheetId="389" state="visible" r:id="rId389"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UGP" sheetId="390" state="visible" r:id="rId390"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UL" sheetId="391" state="visible" r:id="rId391"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNH" sheetId="392" state="visible" r:id="rId392"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNP" sheetId="393" state="visible" r:id="rId393"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UPST" sheetId="394" state="visible" r:id="rId394"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URBN" sheetId="395" state="visible" r:id="rId395"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USB" sheetId="396" state="visible" r:id="rId396"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="V" sheetId="397" state="visible" r:id="rId397"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VALE" sheetId="398" state="visible" r:id="rId398"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VEA" sheetId="399" state="visible" r:id="rId399"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIG" sheetId="400" state="visible" r:id="rId400"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIST" sheetId="401" state="visible" r:id="rId401"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIV" sheetId="402" state="visible" r:id="rId402"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VOD" sheetId="403" state="visible" r:id="rId403"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VRSN" sheetId="404" state="visible" r:id="rId404"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VRTX" sheetId="405" state="visible" r:id="rId405"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VSCTD" sheetId="406" state="visible" r:id="rId406"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VST" sheetId="407" state="visible" r:id="rId407"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VZ" sheetId="408" state="visible" r:id="rId408"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WB" sheetId="409" state="visible" r:id="rId409"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WBA" sheetId="410" state="visible" r:id="rId410"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WBO" sheetId="411" state="visible" r:id="rId411"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WEGE3.SA" sheetId="412" state="visible" r:id="rId412"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WFC" sheetId="413" state="visible" r:id="rId413"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WMT" sheetId="414" state="visible" r:id="rId414"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="X" sheetId="415" state="visible" r:id="rId415"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLRE" sheetId="416" state="visible" r:id="rId416"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XOM" sheetId="417" state="visible" r:id="rId417"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XP" sheetId="418" state="visible" r:id="rId418"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XPEV" sheetId="419" state="visible" r:id="rId419"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XRX" sheetId="420" state="visible" r:id="rId420"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XYZ" sheetId="421" state="visible" r:id="rId421"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YELP" sheetId="422" state="visible" r:id="rId422"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YFCJD" sheetId="423" state="visible" r:id="rId423"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YM34D" sheetId="424" state="visible" r:id="rId424"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCHD" sheetId="425" state="visible" r:id="rId425"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCID" sheetId="426" state="visible" r:id="rId426"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCJD" sheetId="427" state="visible" r:id="rId427"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCXD" sheetId="428" state="visible" r:id="rId428"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YPFD" sheetId="429" state="visible" r:id="rId429"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YZCAY" sheetId="430" state="visible" r:id="rId430"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZM" sheetId="431" state="visible" r:id="rId431"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL30" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL30D" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL35D" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AL41D" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMAT" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMD" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMGN" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMX" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMZN" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ANF" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC1D" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARCO" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARM" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASML" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASR" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AUY" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AVGO" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AVY" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AXP" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AZN" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BA" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BABA" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAK" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAS" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAYN" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BB" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBAR" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBAS3.SA" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBD" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BBV" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCS" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BHP" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BIDU" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BIIB" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BIOX" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BITF" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BK" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BKNG" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BKR" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMA" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMY" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BP" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPA7D" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPB7D" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPC7D" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPD7D" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPJ5D" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPY6D" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRFS" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRK-B" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRKB" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSBR" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSN" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BYCHD" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BYMA" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAAP" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAC5D" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAH" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAR" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAT" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CCL" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDE" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CEG" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CEPU" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CL" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CLS" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COIN" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COST" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRESY" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRM" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CS" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSCO" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSNA3.SA" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CUAP" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CVS" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CVX" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CX" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DAL" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DD" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DE" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DECK" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEO" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DHR" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DICP" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIS" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNC7D" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCU" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOW" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTEA" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EA" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EBAY" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EBR" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDN" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EEM" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EFX" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELP" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EOAN" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EQNR" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERIC" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERJ" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETHA" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETSY" sheetId="126" state="visible" r:id="rId126"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EWJ" sheetId="127" state="visible" r:id="rId127"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EWZ" sheetId="128" state="visible" r:id="rId128"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F" sheetId="129" state="visible" r:id="rId129"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FCX" sheetId="130" state="visible" r:id="rId130"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FDX" sheetId="131" state="visible" r:id="rId131"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FMCC" sheetId="132" state="visible" r:id="rId132"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FMX" sheetId="133" state="visible" r:id="rId133"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FNMA" sheetId="134" state="visible" r:id="rId134"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FSLR" sheetId="135" state="visible" r:id="rId135"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FXI" sheetId="136" state="visible" r:id="rId136"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD29D" sheetId="137" state="visible" r:id="rId137"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD30D" sheetId="138" state="visible" r:id="rId138"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD35D" sheetId="139" state="visible" r:id="rId139"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD38D" sheetId="140" state="visible" r:id="rId140"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GD41D" sheetId="141" state="visible" r:id="rId141"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GE" sheetId="142" state="visible" r:id="rId142"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GFI" sheetId="143" state="visible" r:id="rId143"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GGAL" sheetId="144" state="visible" r:id="rId144"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GGB" sheetId="145" state="visible" r:id="rId145"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GILD" sheetId="146" state="visible" r:id="rId146"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GLD" sheetId="147" state="visible" r:id="rId147"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GLOB" sheetId="148" state="visible" r:id="rId148"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GLW" sheetId="149" state="visible" r:id="rId149"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GM" sheetId="150" state="visible" r:id="rId150"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GNCXD" sheetId="151" state="visible" r:id="rId151"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOOGL" sheetId="152" state="visible" r:id="rId152"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPRK" sheetId="153" state="visible" r:id="rId153"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GRMN" sheetId="154" state="visible" r:id="rId154"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GS" sheetId="155" state="visible" r:id="rId155"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GSK" sheetId="156" state="visible" r:id="rId156"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GT" sheetId="157" state="visible" r:id="rId157"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HAL" sheetId="158" state="visible" r:id="rId158"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HAPV3.SA" sheetId="159" state="visible" r:id="rId159"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HD" sheetId="160" state="visible" r:id="rId160"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HDB" sheetId="161" state="visible" r:id="rId161"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HHPD" sheetId="162" state="visible" r:id="rId162"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HL" sheetId="163" state="visible" r:id="rId163"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HMC" sheetId="164" state="visible" r:id="rId164"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HMY" sheetId="165" state="visible" r:id="rId165"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOG" sheetId="166" state="visible" r:id="rId166"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HON" sheetId="167" state="visible" r:id="rId167"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HPQ" sheetId="168" state="visible" r:id="rId168"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HSBC" sheetId="169" state="visible" r:id="rId169"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HSY" sheetId="170" state="visible" r:id="rId170"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HUT" sheetId="171" state="visible" r:id="rId171"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HWM" sheetId="172" state="visible" r:id="rId172"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IBIT" sheetId="173" state="visible" r:id="rId173"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IBM" sheetId="174" state="visible" r:id="rId174"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IBN" sheetId="175" state="visible" r:id="rId175"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IEUR" sheetId="176" state="visible" r:id="rId176"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IFF" sheetId="177" state="visible" r:id="rId177"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IJH" sheetId="178" state="visible" r:id="rId178"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INFY" sheetId="179" state="visible" r:id="rId179"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ING" sheetId="180" state="visible" r:id="rId180"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INTC" sheetId="181" state="visible" r:id="rId181"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IP" sheetId="182" state="visible" r:id="rId182"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRCFD" sheetId="183" state="visible" r:id="rId183"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRSA" sheetId="184" state="visible" r:id="rId184"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ISRG" sheetId="185" state="visible" r:id="rId185"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ITUB" sheetId="186" state="visible" r:id="rId186"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IWM" sheetId="187" state="visible" r:id="rId187"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JBSS3.SA" sheetId="188" state="visible" r:id="rId188"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JCI" sheetId="189" state="visible" r:id="rId189"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JD" sheetId="190" state="visible" r:id="rId190"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JMIA" sheetId="191" state="visible" r:id="rId191"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JNJ" sheetId="192" state="visible" r:id="rId192"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JOYY" sheetId="193" state="visible" r:id="rId193"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JPM" sheetId="194" state="visible" r:id="rId194"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KB" sheetId="195" state="visible" r:id="rId195"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KEP" sheetId="196" state="visible" r:id="rId196"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGC" sheetId="197" state="visible" r:id="rId197"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KMB" sheetId="198" state="visible" r:id="rId198"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="199" state="visible" r:id="rId199"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KOD" sheetId="200" state="visible" r:id="rId200"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAC" sheetId="201" state="visible" r:id="rId201"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAR" sheetId="202" state="visible" r:id="rId202"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LLY" sheetId="203" state="visible" r:id="rId203"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LMT" sheetId="204" state="visible" r:id="rId204"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LND" sheetId="205" state="visible" r:id="rId205"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOMA" sheetId="206" state="visible" r:id="rId206"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LRCX" sheetId="207" state="visible" r:id="rId207"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LREN3.SA" sheetId="208" state="visible" r:id="rId208"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LVS" sheetId="209" state="visible" r:id="rId209"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LYG" sheetId="210" state="visible" r:id="rId210"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MA" sheetId="211" state="visible" r:id="rId211"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MBG" sheetId="212" state="visible" r:id="rId212"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCD" sheetId="213" state="visible" r:id="rId213"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MDLZ" sheetId="214" state="visible" r:id="rId214"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MDT" sheetId="215" state="visible" r:id="rId215"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MELI" sheetId="216" state="visible" r:id="rId216"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="META" sheetId="217" state="visible" r:id="rId217"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGC9D" sheetId="218" state="visible" r:id="rId218"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGCMD" sheetId="219" state="visible" r:id="rId219"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGCOD" sheetId="220" state="visible" r:id="rId220"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MGLU3.SA" sheetId="221" state="visible" r:id="rId221"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MMC" sheetId="222" state="visible" r:id="rId222"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MMM" sheetId="223" state="visible" r:id="rId223"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MO" sheetId="224" state="visible" r:id="rId224"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOS" sheetId="225" state="visible" r:id="rId225"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRCAD" sheetId="226" state="visible" r:id="rId226"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRK" sheetId="227" state="visible" r:id="rId227"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRNA" sheetId="228" state="visible" r:id="rId228"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MRVL" sheetId="229" state="visible" r:id="rId229"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSFT" sheetId="230" state="visible" r:id="rId230"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSI" sheetId="231" state="visible" r:id="rId231"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSTR" sheetId="232" state="visible" r:id="rId232"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MTCGD" sheetId="233" state="visible" r:id="rId233"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MU" sheetId="234" state="visible" r:id="rId234"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MUFG" sheetId="235" state="visible" r:id="rId235"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MUX" sheetId="236" state="visible" r:id="rId236"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEC1.HM" sheetId="237" state="visible" r:id="rId237"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEM" sheetId="238" state="visible" r:id="rId238"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NFLX" sheetId="239" state="visible" r:id="rId239"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NG" sheetId="240" state="visible" r:id="rId240"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NGG" sheetId="241" state="visible" r:id="rId241"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NIO" sheetId="242" state="visible" r:id="rId242"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKE" sheetId="243" state="visible" r:id="rId243"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NMR" sheetId="244" state="visible" r:id="rId244"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NOKA" sheetId="245" state="visible" r:id="rId245"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NOW" sheetId="246" state="visible" r:id="rId246"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NPCBD" sheetId="247" state="visible" r:id="rId247"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NSAN" sheetId="248" state="visible" r:id="rId248"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NTCO" sheetId="249" state="visible" r:id="rId249"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NTES" sheetId="250" state="visible" r:id="rId250"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NUE" sheetId="251" state="visible" r:id="rId251"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NVDA" sheetId="252" state="visible" r:id="rId252"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NVS" sheetId="253" state="visible" r:id="rId253"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NXE" sheetId="254" state="visible" r:id="rId254"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORCL" sheetId="255" state="visible" r:id="rId255"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORLY" sheetId="256" state="visible" r:id="rId256"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OXY" sheetId="257" state="visible" r:id="rId257"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAAS" sheetId="258" state="visible" r:id="rId258"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAC" sheetId="259" state="visible" r:id="rId259"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAGS" sheetId="260" state="visible" r:id="rId260"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PAMP" sheetId="261" state="visible" r:id="rId261"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PANW" sheetId="262" state="visible" r:id="rId262"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PARP" sheetId="263" state="visible" r:id="rId263"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PATH" sheetId="264" state="visible" r:id="rId264"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBI" sheetId="265" state="visible" r:id="rId265"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PBR" sheetId="266" state="visible" r:id="rId266"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PCAR" sheetId="267" state="visible" r:id="rId267"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDD" sheetId="268" state="visible" r:id="rId268"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEP" sheetId="269" state="visible" r:id="rId269"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PFE" sheetId="270" state="visible" r:id="rId270"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PG" sheetId="271" state="visible" r:id="rId271"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PHG" sheetId="272" state="visible" r:id="rId272"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PINS" sheetId="273" state="visible" r:id="rId273"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PKS" sheetId="274" state="visible" r:id="rId274"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLTR" sheetId="275" state="visible" r:id="rId275"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PM" sheetId="276" state="visible" r:id="rId276"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PNDCD" sheetId="277" state="visible" r:id="rId277"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PNXCD" sheetId="278" state="visible" r:id="rId278"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRIO3.SA" sheetId="279" state="visible" r:id="rId279"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSO" sheetId="280" state="visible" r:id="rId280"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSX" sheetId="281" state="visible" r:id="rId281"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PYPL" sheetId="282" state="visible" r:id="rId282"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QCOM" sheetId="283" state="visible" r:id="rId283"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QQQ" sheetId="284" state="visible" r:id="rId284"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RACE" sheetId="285" state="visible" r:id="rId285"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RBLX" sheetId="286" state="visible" r:id="rId286"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCCJD" sheetId="287" state="visible" r:id="rId287"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCTB4.BA" sheetId="288" state="visible" r:id="rId288"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RENT3.SA" sheetId="289" state="visible" r:id="rId289"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RGTI" sheetId="290" state="visible" r:id="rId290"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIO" sheetId="291" state="visible" r:id="rId291"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RIOT" sheetId="292" state="visible" r:id="rId292"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ROKU" sheetId="293" state="visible" r:id="rId293"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ROST" sheetId="294" state="visible" r:id="rId294"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RTX" sheetId="295" state="visible" r:id="rId295"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUCDD" sheetId="296" state="visible" r:id="rId296"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S10N5" sheetId="297" state="visible" r:id="rId297"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S12S5" sheetId="298" state="visible" r:id="rId298"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S15G5" sheetId="299" state="visible" r:id="rId299"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S16Y5" sheetId="300" state="visible" r:id="rId300"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S18J5" sheetId="301" state="visible" r:id="rId301"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S28N5" sheetId="302" state="visible" r:id="rId302"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S29G5" sheetId="303" state="visible" r:id="rId303"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S29Y6" sheetId="304" state="visible" r:id="rId304"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S30J5" sheetId="305" state="visible" r:id="rId305"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S30S5" sheetId="306" state="visible" r:id="rId306"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S30Y5" sheetId="307" state="visible" r:id="rId307"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S31L5" sheetId="308" state="visible" r:id="rId308"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S31O5" sheetId="309" state="visible" r:id="rId309"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SAN" sheetId="310" state="visible" r:id="rId310"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SAP" sheetId="311" state="visible" r:id="rId311"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SATL" sheetId="312" state="visible" r:id="rId312"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SBS" sheetId="313" state="visible" r:id="rId313"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SBUX" sheetId="314" state="visible" r:id="rId314"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCCO" sheetId="315" state="visible" r:id="rId315"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCHW" sheetId="316" state="visible" r:id="rId316"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDA" sheetId="317" state="visible" r:id="rId317"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SE" sheetId="318" state="visible" r:id="rId318"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHEL" sheetId="319" state="visible" r:id="rId319"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHOP" sheetId="320" state="visible" r:id="rId320"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SID" sheetId="321" state="visible" r:id="rId321"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SLB" sheetId="322" state="visible" r:id="rId322"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SLV" sheetId="323" state="visible" r:id="rId323"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMSN" sheetId="324" state="visible" r:id="rId324"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SNA" sheetId="325" state="visible" r:id="rId325"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SNAP" sheetId="326" state="visible" r:id="rId326"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SNOW" sheetId="327" state="visible" r:id="rId327"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SONY" sheetId="328" state="visible" r:id="rId328"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPCE" sheetId="329" state="visible" r:id="rId329"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPGI" sheetId="330" state="visible" r:id="rId330"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPOT" sheetId="331" state="visible" r:id="rId331"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY" sheetId="332" state="visible" r:id="rId332"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STLA" sheetId="333" state="visible" r:id="rId333"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STNE" sheetId="334" state="visible" r:id="rId334"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUPV" sheetId="335" state="visible" r:id="rId335"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SWKS" sheetId="336" state="visible" r:id="rId336"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SYY" sheetId="337" state="visible" r:id="rId337"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T" sheetId="338" state="visible" r:id="rId338"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T13F6" sheetId="339" state="visible" r:id="rId339"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T15D5" sheetId="340" state="visible" r:id="rId340"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T15E7" sheetId="341" state="visible" r:id="rId341"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T17O5" sheetId="342" state="visible" r:id="rId342"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T30E6" sheetId="343" state="visible" r:id="rId343"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T30J6" sheetId="344" state="visible" r:id="rId344"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCOM" sheetId="345" state="visible" r:id="rId345"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEAM" sheetId="346" state="visible" r:id="rId346"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TECO2" sheetId="347" state="visible" r:id="rId347"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEFO" sheetId="348" state="visible" r:id="rId348"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TEN" sheetId="349" state="visible" r:id="rId349"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TGSU2" sheetId="350" state="visible" r:id="rId350"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TGT" sheetId="351" state="visible" r:id="rId351"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TIIAY" sheetId="352" state="visible" r:id="rId352"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TIMB" sheetId="353" state="visible" r:id="rId353"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TJX" sheetId="354" state="visible" r:id="rId354"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLC5D" sheetId="355" state="visible" r:id="rId355"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLCMD" sheetId="356" state="visible" r:id="rId356"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLCPD" sheetId="357" state="visible" r:id="rId357"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TM" sheetId="358" state="visible" r:id="rId358"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TMO" sheetId="359" state="visible" r:id="rId359"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TMUS" sheetId="360" state="visible" r:id="rId360"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TRIP" sheetId="361" state="visible" r:id="rId361"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TRVV" sheetId="362" state="visible" r:id="rId362"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSC3D" sheetId="363" state="visible" r:id="rId363"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSLA" sheetId="364" state="visible" r:id="rId364"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSM" sheetId="365" state="visible" r:id="rId365"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTCAD" sheetId="366" state="visible" r:id="rId366"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTD26" sheetId="367" state="visible" r:id="rId367"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTE" sheetId="368" state="visible" r:id="rId368"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTJ26" sheetId="369" state="visible" r:id="rId369"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTM" sheetId="370" state="visible" r:id="rId370"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTM26" sheetId="371" state="visible" r:id="rId371"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TTS26" sheetId="372" state="visible" r:id="rId372"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TV" sheetId="373" state="visible" r:id="rId373"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWLO" sheetId="374" state="visible" r:id="rId374"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX" sheetId="375" state="visible" r:id="rId375"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX26" sheetId="376" state="visible" r:id="rId376"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX28" sheetId="377" state="visible" r:id="rId377"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TX31" sheetId="378" state="visible" r:id="rId378"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXN" sheetId="379" state="visible" r:id="rId379"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TY30P" sheetId="380" state="visible" r:id="rId380"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZX26" sheetId="381" state="visible" r:id="rId381"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZX27" sheetId="382" state="visible" r:id="rId382"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZX28" sheetId="383" state="visible" r:id="rId383"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXD6" sheetId="384" state="visible" r:id="rId384"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXD7" sheetId="385" state="visible" r:id="rId385"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXM6" sheetId="386" state="visible" r:id="rId386"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXM7" sheetId="387" state="visible" r:id="rId387"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TZXO6" sheetId="388" state="visible" r:id="rId388"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UAL" sheetId="389" state="visible" r:id="rId389"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UBER" sheetId="390" state="visible" r:id="rId390"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UGP" sheetId="391" state="visible" r:id="rId391"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UL" sheetId="392" state="visible" r:id="rId392"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNH" sheetId="393" state="visible" r:id="rId393"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNP" sheetId="394" state="visible" r:id="rId394"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UPST" sheetId="395" state="visible" r:id="rId395"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URBN" sheetId="396" state="visible" r:id="rId396"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USB" sheetId="397" state="visible" r:id="rId397"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="V" sheetId="398" state="visible" r:id="rId398"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VALE" sheetId="399" state="visible" r:id="rId399"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VEA" sheetId="400" state="visible" r:id="rId400"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIG" sheetId="401" state="visible" r:id="rId401"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIST" sheetId="402" state="visible" r:id="rId402"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIV" sheetId="403" state="visible" r:id="rId403"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VOD" sheetId="404" state="visible" r:id="rId404"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VRSN" sheetId="405" state="visible" r:id="rId405"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VRTX" sheetId="406" state="visible" r:id="rId406"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VSCTD" sheetId="407" state="visible" r:id="rId407"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VST" sheetId="408" state="visible" r:id="rId408"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VZ" sheetId="409" state="visible" r:id="rId409"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WB" sheetId="410" state="visible" r:id="rId410"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WBA" sheetId="411" state="visible" r:id="rId411"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WBO" sheetId="412" state="visible" r:id="rId412"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WEGE3.SA" sheetId="413" state="visible" r:id="rId413"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WFC" sheetId="414" state="visible" r:id="rId414"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WMT" sheetId="415" state="visible" r:id="rId415"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="X" sheetId="416" state="visible" r:id="rId416"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XLRE" sheetId="417" state="visible" r:id="rId417"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XOM" sheetId="418" state="visible" r:id="rId418"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XP" sheetId="419" state="visible" r:id="rId419"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XPEV" sheetId="420" state="visible" r:id="rId420"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XRX" sheetId="421" state="visible" r:id="rId421"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XYZ" sheetId="422" state="visible" r:id="rId422"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YELP" sheetId="423" state="visible" r:id="rId423"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YFCJD" sheetId="424" state="visible" r:id="rId424"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YM34D" sheetId="425" state="visible" r:id="rId425"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCHD" sheetId="426" state="visible" r:id="rId426"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCID" sheetId="427" state="visible" r:id="rId427"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCJD" sheetId="428" state="visible" r:id="rId428"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YMCXD" sheetId="429" state="visible" r:id="rId429"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YPFD" sheetId="430" state="visible" r:id="rId430"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YZCAY" sheetId="431" state="visible" r:id="rId431"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ZM" sheetId="432" state="visible" r:id="rId432"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -854,7 +855,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AAL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AAL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -880,7 +881,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ADI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ADI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DAL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -932,7 +933,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DAL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -958,7 +959,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -984,7 +985,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DECK";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1011,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DEO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DECK";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1037,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DHR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DEO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1063,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DICP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DHR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1089,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DIS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DICP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1115,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DNC7D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DIS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1141,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DOCU";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DNC7D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1167,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ADP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ADP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1193,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DOW";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DOCU";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1219,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("DTEA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DOW";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1245,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("E";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("DTEA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1271,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("E";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EBAY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1323,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EBR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EBAY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1349,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EDN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EBR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1375,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EEM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EDN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1401,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EFX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EEM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1427,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ELP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EFX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1453,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ADS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ADS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1479,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EOAN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ELP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1505,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EQNR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EOAN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1531,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ERIC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EQNR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1557,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ERJ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ERIC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1583,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ETHA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ERJ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1609,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ETSY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ETHA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1635,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EWJ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ETSY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1661,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("EWZ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EWJ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("F";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("EWZ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1713,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FCX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("F";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1739,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AE38D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AE38D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1765,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FDX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FCX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1791,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FMCC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FDX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1817,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FMX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FMCC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1843,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FNMA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FMX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1869,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FSLR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FNMA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1895,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("FXI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FSLR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1921,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GD29D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("FXI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1947,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GD30D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GD29D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1973,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GD35D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GD30D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1999,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GD38D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GD35D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2025,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AEG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AEG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2051,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GD41D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GD38D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GD41D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2103,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GFI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2129,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GGAL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GFI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2155,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GGB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GGAL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2181,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GILD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GGB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2207,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GLD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GILD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2233,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GLOB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GLD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2259,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GLW";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GLOB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2285,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GLW";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2311,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AEM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AEM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2337,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GNCXD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2363,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GOOGL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GNCXD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2389,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GPRK";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GOOGL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2415,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GRMN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GPRK";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2441,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GRMN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GSK";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2493,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("GT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GSK";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2519,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HAL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("GT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2545,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HAPV3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HAL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2571,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HAPV3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2597,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AGRO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AGRO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2623,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HDB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2649,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HHPD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HDB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2675,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HHPD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2701,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HMC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2727,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HMY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HMC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2753,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HOG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HMY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2779,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HON";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HOG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2805,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HPQ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HON";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HSBC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HPQ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HSY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HSBC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2883,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2909,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HUT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HSY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2935,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("HWM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HUT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2961,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IBIT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("HWM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2987,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IBM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IBIT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3013,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IBN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IBM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3039,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IEUR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IBN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3065,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IFF";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IEUR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3091,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IJH";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IFF";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3117,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("INFY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IJH";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3143,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ING";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("INFY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3169,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AIG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AIG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3195,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("INTC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ING";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3221,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("INTC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IRCFD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3273,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IRSA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IRCFD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3299,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ISRG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IRSA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3325,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ITUB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ISRG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3351,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("IWM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ITUB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3377,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JBSS3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("IWM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3403,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JCI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JBSS3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3429,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JCI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3455,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AKO-B";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AKO-B";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3481,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JMIA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3507,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JNJ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JMIA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3533,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JOYY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JNJ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3558,7 +3559,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("JPM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JOYY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3585,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("KB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("JPM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3611,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("KEP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("KB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("KGC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("KEP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3663,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("KMB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("KGC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3689,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("KO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("KMB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3715,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("KOD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("KO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3741,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AAP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AAP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3767,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AL29D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AL29D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3793,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LAC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("KOD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3819,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LAR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LAC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3845,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LLY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LAR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3871,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LMT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LLY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3897,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LND";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LMT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3923,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LOMA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LND";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3949,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LRCX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LOMA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3975,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LREN3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LRCX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4000,7 +4001,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LVS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LREN3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("LYG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LVS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4053,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AL30D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AL30";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4079,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("LYG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4105,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MBG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4131,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MCD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MBG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4157,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MDLZ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MCD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4183,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MDT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MDLZ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4209,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MELI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MDT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4235,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("META";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MELI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4261,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MGC9D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("META";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4287,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MGCMD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MGC9D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4313,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MGCOD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MGCMD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4339,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AL35D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AL30D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4365,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MGLU3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MGCOD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4391,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MMC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MGLU3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MMM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MMC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4443,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MMM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4469,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MOS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4495,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MRCAD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MOS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4521,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MRK";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MRCAD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4547,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MRNA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MRK";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4573,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MRVL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MRNA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4599,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MSFT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MRVL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4625,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AL41D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AL35D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4651,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MSI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MSFT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4677,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MSTR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MSI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4703,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MTCGD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MSTR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4729,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MU";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MTCGD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4755,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MUFG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MU";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4781,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("MUX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MUFG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NEC1.HM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("MUX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4833,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NEM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NEC1.HM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4859,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NFLX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NEM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4885,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NFLX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4911,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AMAT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AL41D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4937,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NGG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4963,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NIO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NGG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4989,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NKE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NIO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5015,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NMR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NKE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5041,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NOKA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NMR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5067,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NOW";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NOKA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5093,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NPCBD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NOW";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5119,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NSAN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NPCBD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5145,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NTCO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NSAN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5171,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NTES";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NTCO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AMD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AMAT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5222,7 +5223,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NUE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NTES";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5249,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NVDA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NUE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5275,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NVS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NVDA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5301,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("NXE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NVS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5327,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ORCL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("NXE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5353,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ORLY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ORCL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5379,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("OXY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ORLY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5405,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PAAS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("OXY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5431,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PAC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PAAS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5457,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PAGS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PAC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5483,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AMGN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AMD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5509,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PAMP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PAGS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5534,7 +5535,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PANW";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PAMP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5561,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PARP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PANW";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PATH";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PARP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5613,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PBI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PATH";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5639,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PBR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PBI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5664,7 +5665,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PCAR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PBR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5691,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PDD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PCAR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5717,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PEP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PDD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5742,7 +5743,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PFE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PEP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5769,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AMX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AMGN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5795,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PFE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5820,7 +5821,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PHG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5847,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PINS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PHG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5873,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PKS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PINS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5899,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PLTR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PKS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5924,7 +5925,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PLTR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5951,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PNDCD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PNXCD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PNDCD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6002,7 +6003,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PRIO3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PNXCD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6029,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PSO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PRIO3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6055,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AMZN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AMX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6081,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PSX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PSO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6107,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("PYPL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PSX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6132,7 +6133,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("QCOM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("PYPL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6159,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("QQQ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("QCOM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6184,7 +6185,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RACE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("QQQ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6211,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RBLX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RACE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6237,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RCCJD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RBLX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6263,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RCTB4.BA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RCCJD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6289,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RENT3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RCTB4.BA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6315,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RGTI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RENT3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6341,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ANF";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AMZN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RIO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RGTI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6393,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RIOT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RIO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6419,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ROKU";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RIOT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6445,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ROST";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ROKU";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6471,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RTX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ROST";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6497,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("RUCDD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RTX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6523,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S10N5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("RUCDD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6549,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S12S5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S10N5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6574,7 +6575,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S15G5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S12S5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6601,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S16Y5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S15G5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6627,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AAPL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AAPL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6653,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ARC1D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ANF";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6679,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S18J5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S16Y5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6705,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S28N5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S18J5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6730,7 +6731,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S29G5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S28N5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S29Y6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S29G5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6783,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S30J5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S29Y6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6809,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S30S5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S30J5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6835,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S30Y5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S30S5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6861,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S31L5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S30Y5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6887,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("S31O5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S31L5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6912,7 +6913,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SAN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("S31O5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6938,7 +6939,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ARCO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ARC1D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6965,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SAP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SAN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -6990,7 +6991,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SATL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SAP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7017,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SBS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SATL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7043,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SBUX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SBS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7069,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SCCO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SBUX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7095,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SCHW";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SCCO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7121,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SDA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SCHW";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SDA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7172,7 +7173,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SHEL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7199,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SHOP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SHEL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7225,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ARM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ARCO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7251,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SID";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SHOP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7277,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SLB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SID";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7302,7 +7303,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SLV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SLB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7328,7 +7329,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SMSN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SLV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7355,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SNA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SMSN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7381,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SNAP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SNA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7407,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SNOW";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SNAP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7432,7 +7433,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SONY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SNOW";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7459,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SPCE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SONY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SPGI";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SPCE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7511,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ASML";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ARM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SPOT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SPGI";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7563,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SPY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SPOT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7589,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("STLA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SPY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7614,7 +7615,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("STNE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("STLA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7640,7 +7641,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SUPV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("STNE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7667,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SWKS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SUPV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7693,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("SYY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SWKS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7719,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("SYY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7744,7 +7745,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T13F6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7771,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T15D5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T13F6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7797,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ASR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ASML";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7823,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T15E7";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T15D5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7849,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T17O5";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T15E7";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7874,7 +7875,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T30E6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T17O5";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7901,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("T30J6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T30E6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TCOM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("T30J6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7953,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TEAM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TCOM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7979,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TECO2";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TEAM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8005,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TEFO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TECO2";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8030,7 +8031,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TEN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TEFO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8057,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TGSU2";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TEN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8082,7 +8083,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AUY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ASR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8109,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TGT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TGSU2";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8135,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TIIAY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TGT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8161,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TIMB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TIIAY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8187,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TJX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TIMB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8212,7 +8213,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TLC5D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TJX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8238,7 +8239,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TLCMD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TLC5D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8265,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TLCPD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TLCMD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8291,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TLCPD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TMO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8343,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TMUS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TMO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8369,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AVGO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AUY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8395,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TRIP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TMUS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8420,7 +8421,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TRVV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TRIP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8447,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TSC3D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TRVV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8472,7 +8473,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TSLA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TSC3D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8499,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TSM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TSLA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8525,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTCAD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TSM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8551,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTD26";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTCAD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8576,7 +8577,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTD26";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8603,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTJ26";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8628,7 +8629,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTJ26";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8655,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AVY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AVGO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8681,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTM26";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TTS26";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTM26";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8733,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TTS26";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8759,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TWLO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8784,7 +8785,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TWLO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8811,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TX26";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8836,7 +8837,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TX28";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TX26";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8863,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TX31";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TX28";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8889,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TXN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TX31";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8914,7 +8915,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TY30P";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TXN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8941,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AXP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AVY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8967,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZX26";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TY30P";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -8992,7 +8993,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZX27";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZX26";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9019,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZX28";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZX27";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9044,7 +9045,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZXD6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZX28";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9071,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZXD7";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZXD6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZXM6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZXD7";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9123,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZXM7";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZXM6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9149,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("TZXO6";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZXM7";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9175,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UAL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("TZXO6";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9201,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UBER";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UAL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9227,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("AZN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AXP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9253,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UGP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UBER";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9279,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UGP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9305,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UNH";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9330,7 +9331,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UNP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UNH";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9357,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("UPST";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UNP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9382,7 +9383,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("URBN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("UPST";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9409,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("USB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("URBN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9435,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("V";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("USB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9461,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VALE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("V";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VEA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VALE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9513,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ABBV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ABBV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9538,7 +9539,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("B";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("AZN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9564,7 +9565,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VIG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VEA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9590,7 +9591,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VIST";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VIG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9617,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VIV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VIST";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9643,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VOD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VIV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9668,7 +9669,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VRSN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VOD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9695,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VRTX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VRSN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9721,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VSCTD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VRTX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9746,7 +9747,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VST";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VSCTD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9773,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("VZ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VST";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9799,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("WB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("VZ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9825,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("B";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9851,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("WBA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("WB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("WBO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("WBA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9903,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("WEGE3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("WBO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9929,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("WFC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("WEGE3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9954,7 +9955,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("WMT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("WFC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9981,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("X";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("WMT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10006,7 +10007,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("XLRE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("X";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10032,7 +10033,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("XOM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("XLRE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10059,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("XP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("XOM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10085,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("XPEV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("XP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10110,7 +10111,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BABA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10137,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("XRX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("XPEV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10162,7 +10163,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("XYZ";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("XRX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10188,7 +10189,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YELP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("XYZ";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10215,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YFCJD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YELP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10241,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YM34D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YFCJD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YMCHD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YM34D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10292,7 +10293,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YMCID";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YMCHD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10319,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YMCJD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YMCID";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10345,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YMCXD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YMCJD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10371,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YPFD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YMCXD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10396,7 +10397,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BAC";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BABA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10422,7 +10423,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("YZCAY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YPFD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10448,7 +10449,33 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ZM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("YZCAY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet432.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>'=@SerieHistoricaPorEspecieBD("ZM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10474,7 +10501,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BAK";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BAC";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10527,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BAS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BAK";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10526,7 +10553,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BAYN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BAS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10552,7 +10579,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BAYN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10605,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BBAR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10604,7 +10631,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BBAS3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BBAR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10630,7 +10657,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ABEV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ABEV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10683,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BBD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BBAS3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10682,7 +10709,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BBV";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BBD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10708,7 +10735,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BCS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BBV";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10734,7 +10761,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BHP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BCS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10787,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BIDU";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BHP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10786,7 +10813,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BIIB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BIDU";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10839,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BIOX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BIIB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10838,7 +10865,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BITF";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BIOX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10864,7 +10891,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BK";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BITF";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10917,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BKNG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BK";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10943,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ABNB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ABNB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10969,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BKR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BKNG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10968,7 +10995,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BMA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BKR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -10994,7 +11021,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BMY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BMA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11020,7 +11047,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BMY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11073,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BPA7D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11099,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BPB7D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BPA7D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11098,7 +11125,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BPC7D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BPB7D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11151,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BPD7D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BPC7D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11150,7 +11177,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BPJ5D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BPD7D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11203,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BPY6D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BPJ5D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11229,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ABT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ABT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11255,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BRFS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BPY6D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11254,7 +11281,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BRK-B";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BRFS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11307,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BRKB";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BRK-B";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11306,7 +11333,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BSBR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BRKB";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11332,7 +11359,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BSN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BSBR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11358,7 +11385,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BYCHD";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BSN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11411,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("BYMA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BYCHD";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11410,7 +11437,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("C";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("BYMA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11463,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CAAP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("C";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11462,7 +11489,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CAC5D";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CAAP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11515,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ACN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ACN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11514,7 +11541,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CAH";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CAC5D";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11540,7 +11567,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CAR";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CAH";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11593,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CAT";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CAR";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11592,7 +11619,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CCL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CAT";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11645,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CDE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CCL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11644,7 +11671,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CEG";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CDE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11670,7 +11697,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CEPU";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CEG";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11696,7 +11723,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CL";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CEPU";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11722,7 +11749,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CLS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CL";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11775,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("COIN";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CLS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11774,7 +11801,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("ADBE";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("ADBE";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11800,7 +11827,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("COST";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("COIN";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11853,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CRESY";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("COST";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11852,7 +11879,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CRM";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CRESY";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11905,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CRM";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11904,7 +11931,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CSCO";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11930,7 +11957,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CSNA3.SA";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CSCO";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11983,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CUAP";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CSNA3.SA";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -11982,7 +12009,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CVS";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CUAP";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -12008,7 +12035,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CVX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CVS";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12061,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>'=@SerieHistoricaPorEspecieBD("CX";"Diario";"2025-01-01";"2025-06-24";"CORRIENTE";"24";"PPT")</t>
+          <t>'=@SerieHistoricaPorEspecieBD("CVX";"Diario";"2025-01-01";"2025-07-10";"CORRIENTE";"24";"PPT")</t>
         </is>
       </c>
     </row>
